--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/52_Kocaeli_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/52_Kocaeli_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F452058E-D877-4712-A36A-BAC4E2DA9D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CCFF2AA-9FA3-4E9C-8BFD-D2C57CFA49E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="645" xr2:uid="{9FDD1F83-DC6B-483F-A25B-CC9551100573}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{944AFAAB-5E55-4F4F-AC27-0B6BD4B6FD76}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -975,14 +975,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{DE088F78-11C2-4ED1-B92C-5BAC3BB0BB68}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0204651D-0541-4134-AD35-1F3EBE7BADB7}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{3F856DFE-7B4A-46C4-A61A-B51280B78F39}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{8BD7A2B2-9854-455B-9B16-A3F9AE022D34}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{DBC41398-2D0E-4A63-9C77-E0354A8AF5D2}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{E4801DA6-122E-4D33-A3A5-6F5AAF3799B9}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{AB35CF90-3A8A-461F-945A-DE45DCA28026}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{317EA075-197F-4D9B-8897-9391AA52E2D2}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{7E1D517C-83B4-48C5-97BA-CCC1AE3A2F1D}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1B44F705-176F-459E-8DB4-9E2B654074FE}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{9DEC33AC-557D-4066-BB31-9BB8E971BDEE}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{67625D9D-D803-42E9-9F43-DEF7AA86AC9E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{098A80CA-984E-4B45-900F-796914C5ED43}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{D5F2B032-9CB7-49A8-83FA-23F0DFB1B6CE}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{FCC4254C-BB4A-4B95-A246-9EE0E6C1B145}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{509A0C31-CB0B-400A-8BB3-CD3709D4D7A9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B8FDF7-D7C3-4AAA-B1A6-A78A3FB46D42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2C92DD-57AD-429C-BA3A-0A47C20E2963}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2680,17 +2680,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EE47D7C3-597D-45C3-99BA-AEFB095E8D3B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0AB28B6D-8BAF-483B-ACEE-E799F45B968B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{76E7B8D0-07BB-4BFA-8686-0352FC4D640D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C60C0F1B-6518-4591-BF96-93D2228523C4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{306FBD97-B0A6-4E65-A71F-0896F6AF5DF9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E673FA2-7EAE-40FA-9532-CE6B8A39ED80}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{15DBFFE7-67BD-44D6-8994-A18C44B8465A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{54AFA6C4-9183-4756-9978-E5ABF26E41A5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{621E5095-CAC4-46D8-8C61-3805E70E0197}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EF728A32-7EAC-4FEB-9062-5BAB8BF43F00}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8CD6865D-F277-4405-A21C-DD32CEDD3E27}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E237A0AC-0603-43A0-AE3F-C2742FB64B3B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FC150AF9-3113-43DE-847A-2514C823EE8C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D8E0412B-E4DD-491C-8431-B474EBE07F55}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA96FAE3-8296-497B-B4BA-3C8EA1F5312A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BDE86C2A-3A23-4199-B246-AA2D6C0D4978}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9D18CFDD-8209-4C14-9C90-A81A2FB50D6A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC1CB6C0-C353-4C15-A4AC-BB09FC4331CD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9ECD94B-8E8C-4222-8498-4EC8350616F8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D39DC195-F664-4320-8ECF-B3E4F7DC2703}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2F298408-4A35-4B5B-83CC-C992E1C5A84D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A5F0787E-3780-4050-BA7D-2ED5EA6CDE4A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2703,7 +2703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A289BAEC-7A32-4015-B006-FBD1A8413F5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25A3C6E-42FE-4BD7-B189-324447208940}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4022,17 +4022,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72A4925F-51F5-4599-B404-3354CA6346DC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD1A1305-922B-434D-8856-87E6CC3B63B8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{93C66DBA-00F8-4D11-943C-486E768C7A31}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0DDA7D9D-541E-4EE6-B8DD-469B52CECEBF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EEE2F478-2429-429E-B7D6-BCDB31CE6088}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD4E1F53-ED7E-440B-AF13-C0E9AF590E0F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{017D7A30-489F-4D0F-998B-4BEFF00BD1E2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{534B4BD8-97A5-43F9-AB50-5CE24D5AD76F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9A52BA32-6165-4C88-8FEC-A7AC791BCBDB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B439F405-C119-4C5B-9147-4D5A5D9C295C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8906108-5B40-4D6B-AA59-5EE735FE7704}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{53D1692E-18CC-4DCA-B6C8-6E0213D14BDD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9930E8A-69A2-4026-A3AB-E31C2BAB5F3F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{38CFD21E-3612-481B-8E51-90C093DF0A84}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8312A7B2-3222-474D-8989-0478CD102ECF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{09CBE288-ECB2-4302-839F-8702E2BE7F5C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{19E10550-336E-4DF6-B189-8E6348A81C71}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{084A2295-6538-491F-B460-AB6ECC3C20A7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{64AFFF20-E550-41D9-A240-9C958E5D1832}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F838D9CE-E78B-4AC2-9E5F-F1A808D53CEC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{81419B59-4C3F-43D4-A676-411DBD04BC1D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B2EA67E7-082F-4730-B6D1-8E182DF292C3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4045,7 +4045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498B9DA7-3F10-462F-AE16-FA5D1E252DA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E14848-3C09-42BA-9B4C-D783D170CFED}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5358,17 +5358,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AEF3B6F6-0369-4222-B56D-F9B0ACFB68D2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4BF07718-ACD9-4D40-8301-5E5B30DC971B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B63D0DD-6F3C-462E-AAA6-423990DABA5C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9092BE96-070B-4934-98E2-8BE5E615FBF2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7CF944AC-7C4E-4BA8-AC06-462DC46EEB92}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{082DDCA7-7127-442D-A57B-FBB10F7A233E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{85FD95EE-E881-44E3-AF7B-9DDBB7A85ADE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{65580D8C-266C-469E-B819-8869694574A7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E3F249EC-BB3A-42D1-96B6-EE4EE6470CF9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5C1BE23E-A634-4AEE-8C32-995A682D2D31}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{07BABD10-68D3-4EED-9657-199E253224A1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C942F93-E252-4890-A16B-1B68AACFDFA5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD2BA79D-FF34-4931-973F-15F93D77B4A0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1084096E-0D6C-41AD-9326-3C0D0E7E03D9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{26064852-D48F-4C86-982E-D2CC8E99D8F8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{80FE202F-A8D0-449E-A49B-008753EB43E2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82B9CEDE-5451-4F8E-86AD-DFB8B079DC0D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1C5ABD7-F45B-4179-BCA7-3C375300DD36}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{65827C60-76F3-4809-A277-DDB09D60A4E0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B17C167A-5BAE-474A-8840-255461B3730E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9E62231A-B1B3-4E78-9C4F-F7AA6469049C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA01C0BD-8CB8-47BC-9308-535E274092DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5381,7 +5381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07513B0-48DC-4557-86D1-7A903F4F3D23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F713B014-C169-45BF-B760-042F69CC9DA1}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6684,17 +6684,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{034B14E3-F120-456A-AC5C-0E91ADFCEB51}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE642B9E-516C-44DD-B434-A34F1DD2BFDB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{683C6F37-DFF8-428A-840C-49C9718A1B64}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{345062A4-4DE3-4AC0-A455-5EE7012BB580}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD27F601-FB4C-475E-B1C1-37A5781A9B08}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB8F847B-5C65-4EB7-9742-B862CF074F20}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B207D97C-0771-49C5-B51B-72343B5797CE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E96D36C4-0419-4249-A3DF-E2D583D9BBAD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7D87CC33-7058-47D6-92D0-C58E6629DA05}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F6B830AD-73F6-49DF-8C5F-839528F6280D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D7996DE-BC22-48FB-AAC3-D11DFDF410EB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{946B1570-40AE-4E97-8801-BA644CCAC78F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6E9F4108-A871-485D-965D-F3A5CA402648}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2F98EC0F-FCD3-4D5A-8B37-FCC1F1A7EC27}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{694C5BEB-1FEF-4253-8F06-B778BD291875}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A67DA760-DD50-4D79-8AF0-87222D405162}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{42DA24D8-30EA-444E-BC0A-BED1FD20493F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4874E43C-28B7-4BB1-B9EC-E7D03143DB07}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F081F789-0D4C-40DF-8301-9DD587E48577}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CD6FE56E-C874-409A-B7D0-C3329F73B0FB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{98958E7C-A7C5-4068-94E8-EB4972A94AF7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{69C1D806-2FFB-4613-B039-238236DAD79C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6707,7 +6707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC9EAC7-8946-49C6-92CC-E6AD6E85CBB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2472032E-600C-4835-8997-50B4D575683C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8030,17 +8030,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0908DEB9-2A52-4B3C-8941-ABF5548266E1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31BD04C1-26FF-47B5-8AB0-087C2B90E23C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3C04AACF-BF29-4F71-9A04-E33AD6260F50}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{79589182-163B-456F-9327-FD31F4969444}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{56C93A97-54F3-42CC-B68C-50CDDAD01ED0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{742E018A-76F6-4C26-9D34-E983309A9FC4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D8DEF3BF-E685-483F-A374-A8B9FFCF2914}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{93E1518B-ED92-4343-ABDE-399B521097A5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E29498D9-B7BD-455D-A7E2-58E7FC18B155}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{52CE2F53-E201-40E3-AA36-1BE7810DE573}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CD7DBACE-34AC-4924-86F6-FCDA56ABBFF3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2529AE0C-8083-41EB-9702-E552AADC6E73}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C114D98E-982F-4637-A9F7-0F4FFD9E4341}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DE2B6577-C4E6-4CF8-AA78-1A886E841F3C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8575271E-60C8-4E86-A888-8F2A08D12D27}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B331EA52-AB79-4EE0-ADC3-0EE2C6219505}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D1F5577F-EDD0-4484-9BC8-ADE3A9AA8B2A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{374EF754-5532-42DA-BCE4-1CE7A567258A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D9E4798-466A-4AF2-B491-F18FCFDA88CC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{74EB2808-1DA7-46E4-B6EE-992EF5BC348E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0A63D85D-9D29-4AD0-9E14-3AB06FB2F200}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CEEFC93D-50BD-481F-BBA6-287D69543B24}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8053,7 +8053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C9D916-297A-431E-B2A0-917EE9CDD830}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E87E8B9-99AC-42CF-833D-A6F6B6A4A7AE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9376,17 +9376,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3319D36B-CC1F-433D-92F4-8FEAA9137A26}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C32DA7CB-DB8A-43BB-A8EE-46CFC9407CE5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{90BA70E4-A398-435C-823D-E30C8E6A2FE3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8708C7C4-655D-47CC-B473-2D8041518D19}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{00101796-EF71-48E2-9D2C-EB158987CBAE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EB68FC10-C14C-48B2-884D-2CC4425483E0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{66D14154-7BF2-4127-98F2-F83C951C2D63}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9DEA4723-B5AB-4A84-870C-F4E56AD92705}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{ED896150-6F15-4021-9A09-C0DDDD93A2DB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A539A4B1-A816-4349-A7EC-3F87FA63B482}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CCDEE915-C2C6-48F0-A3EA-71926571AEF4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3CB5C69D-D8BB-4218-AB66-5A180F50021A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D9134BB-F4D1-4767-ACCA-DA1251FB1DAF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7AEBC529-1D14-4FF7-AF16-EAA4D1ACC8D8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3FF790FF-6560-4E55-9CB3-ECBB7DA2F3D7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F6497FF-F476-4335-B375-89BD69E55FE6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E42E6FD1-F5AE-490A-9E4D-62DB5A6659F3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C34B0DB9-61FC-4D89-9243-058F519CD9C0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{940DFC77-C96F-4F1E-B1AB-12C5ADCF0A1E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C4E6D25D-AA10-4FB7-A93E-94D05DB8823C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2C00EC5E-EF1E-47C6-8B3C-29F8BBC0E046}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{32D54DAB-F6BB-4F24-8222-8A7B8F2DBD7C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9399,7 +9399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC2B59F-28C2-4042-8BF1-CBB95EB3EC25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBC24B5-1DF7-4E0B-A87C-54A80D7730AE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10722,17 +10722,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{65165085-D573-4AE0-B9FE-941731E91CFA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C951EE76-23FC-46A7-A363-FB4FBE356B95}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2CD4280E-9C1B-4138-A008-C9F0C26251EA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3686A49F-1B98-4A8C-A981-C2664B7A3F09}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B1A5AE0C-E28D-4881-B13C-183CAEC08B32}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E6E573E-DEE6-421B-A339-CEB0AF5609E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09B478E8-9613-4815-8E4B-386E252243B3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DDFB26B7-2ED2-4DEC-BCA3-3841AEEE7CA6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F39DEEF4-DFC6-43A8-AA9A-8055C962316E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FAA893FD-0AA7-43C4-897C-E566AE7786CC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B3FE728-F1A6-44BF-A185-47714F4E4A67}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{893E6F30-EB23-46E6-B7BC-03145C9C5467}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6BF084A-E5DF-4659-9D76-3E49434B11E5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{959405B5-155D-41EA-ADAE-AF87EB24718D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{47B08373-912D-4EF5-8495-76D19D3CDC9A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C904A68-802C-4207-8C50-C6172176DBC9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{04B680A6-3BBA-423A-800D-3CC6B52132F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7E8A56D2-63FD-4389-BC6F-DE364C510853}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13C05242-CFC3-4411-ABF8-B8E472097BDC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{03EC86C6-5282-45D5-A3E6-C9EEE1BB1996}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4EC067E1-F38C-4BFF-A532-5C52EB2C1F00}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{08CE23BF-4490-4E80-868B-DFBD35195712}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10745,7 +10745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2EB44E-32D4-4ACF-9214-64C6B8A0E867}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F493105-583D-4841-968F-991C980D3F63}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12068,17 +12068,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA687F6B-54A7-4EE2-ACF0-9B2EC0992308}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0EE0421E-7C01-4058-AB3F-E0F78448C752}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F386E726-3A47-41B1-818E-963114DA29E1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{236641BE-83E1-4504-B97A-26AA264F17E5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{56898AFF-F429-4E5F-A194-3BD1819F4FD2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2140DFAC-B401-493F-BAEF-D2F2F641D62F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C58C4370-5AF3-4F12-8154-DA37355B15DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B90E4D38-655D-4488-82C4-F10BAB464955}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5CEF1269-1193-4FF7-9E71-C4AA40F37058}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5BFA2407-04C0-4425-8877-B492520E9122}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D6037132-F23F-4E9D-981F-1AC83ED0214D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72648C66-69A3-4073-8C4D-F0729C8047B2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{496CD744-D743-4996-A00B-CE223440F69C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E836679E-65F6-4575-A09F-7D5FFFF80B68}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CF415203-1BFD-4B63-831A-7C0AE536639E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2FD53A2E-B5BC-4B9B-BD9F-BF4BA3895DC5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9E862544-E3CE-44B4-9C0F-AB780FA90DB5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25F511DD-9FD9-4FCE-974D-89B96C5A5691}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F575C17F-F85A-436C-88B4-586DB82F871C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{44B1FF96-3D18-4DC4-AE0A-3919D641DB0E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2AC9F28F-935D-44D1-BAE7-200A6167AD12}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F7034E5-A7CE-406F-81D5-4EA2E261A3ED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12091,7 +12091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3915B4-7E71-4295-B73F-941D2EF9B459}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7713F15E-7A2B-4BD5-924A-FD63246F1519}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13414,17 +13414,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{015B1D40-E506-4961-830C-B069397CB7CD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E596778C-4CB8-4530-A0BA-2E9C4223D8B6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{60498D67-B5AC-4F61-AA22-EABB0E5952BA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{577E4767-40CC-4204-BA9C-8E18739FEF4C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9DA80D1A-4F8C-4DE4-9B57-35BE248EC85E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3027C5FF-B2E4-457C-B36B-B35A0D5C3325}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1AC02715-ABE4-4AD9-B87B-FCFC11DD0589}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AD823FAD-E875-429E-B6AE-2ABBA438ED74}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F8DBABEA-3EC8-4736-BA1B-F9F4CA7E9E3C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0E794A1E-2709-404B-B181-8F91D8CDB3DB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E0444FF-9FAB-4429-8B56-8B59183E516C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9C7CB60-9C5B-447E-BC32-CFCB28218C4B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A310011A-51E8-48B0-BB92-34F6C93B7279}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DA7FB31E-B12C-4B31-BA7A-E05E81782514}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{657D0006-D268-402B-930A-2A73C6DF3D6F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{01B6E8DB-7198-49AA-B137-4F93A3663014}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{985CAAEC-3FBB-45DD-BEDB-490F91A2B874}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7DDB2DD8-3054-490F-9028-08B0CC4FEFA9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{293CF613-4833-4240-908C-D0CE1C52A962}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4F2A3273-8718-4BDF-BA77-6BB1E6D265A1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{135312C9-EE61-4CB7-8C98-6B6D3697A2AB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5AA423BD-AEE6-4B68-BF5F-54DDDC35B640}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13437,7 +13437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB88580F-735B-47B1-820A-8D26C88F2033}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E265DE17-F804-4B92-9488-396109A41AB6}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14760,17 +14760,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6DE90205-8ACD-4193-B003-1240CCB60669}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16011F98-D293-4FD9-9E90-BA6CC0A4086E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{95C6546F-84D6-48B6-BC8D-9D5F511B4C69}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{966F64BE-0BE8-4E2C-A196-738DD4498D89}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{77402213-EAA0-44B1-8623-A4A1689D9E61}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{16650B60-AD60-4630-B651-5D9ACD89E985}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C9D583B-FE24-4E02-A477-6AB2F5047F3F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27367447-8B38-4B14-A457-336E4304DA03}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A5BE8E9B-B922-4F5C-90BB-5109BF5C846F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C76B0891-ED71-4A2F-8073-D057F25AE368}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B950BBBB-7D3E-4221-8041-51B233CCBC37}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05FAC494-8706-4019-A343-DA60A2CDB04B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{38BB0D6D-03BC-4964-999E-60E73C84F5D7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0568F6D7-003A-4B63-8897-CEB03A797EE8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1D18A407-186D-4A8B-9EE9-28AE256E2A2E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E5756AFA-0054-41FA-8E2F-DB4C56B2937B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{76D5E942-CA31-45E2-A222-E11C1A3ECEFA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A0D1FE3-9ADF-4B51-B87F-0D86FAE3B6D5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75B5D09F-952B-4F3D-9F7D-B72473CDB20E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A5AB778A-E3CC-415C-BF89-7FAB2C3C4AA2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3D8C44FD-89A3-49C3-AFFA-56A82ED1C99D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD0BBAB6-B323-433B-A849-04007D82C6BA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14783,7 +14783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF89443C-AA52-4FEF-A967-B79CEE47809F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE1B7A3-FCBF-4E3C-A679-BF282D599293}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16106,17 +16106,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E1EE2C5-C0E9-492C-9256-9CD533FF1CD6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{69A0F23F-24F4-40F2-8C42-B9C2C49E3A77}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6E9BAAB9-F968-4A94-B59D-A761A5025534}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6C634B0B-626A-477A-8C30-2DFDEEB45CBE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0B387C45-1A15-43A3-AB3D-F9197F5CC573}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{803AB13A-24FD-48A7-AEF8-E6C997312D5C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B368FB3-AB6B-4A67-95FB-E3B1B0A8D5B7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED36D920-BC29-4880-8D05-CABC0A261277}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B1E5B5AF-0212-4FFD-8338-72E1206557AD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{13A04516-52CE-44BE-A07F-10CEF7B4F8AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6126BD60-8D91-4C9D-83C4-C9A79D6C04D2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A785E8B-0F34-49DF-9824-F9B2C42FFA04}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58C81FDB-5A5B-43A3-9EBA-2E7AC9752667}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{57907F65-E57A-43B6-B439-1EC32849AD72}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7429759F-53B3-4BE4-ABC6-21C70F7FD2D1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A135C49-4E16-47AF-BEDE-1F58D748F4C0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{124E66CB-024F-4789-A6C2-0BA0915D693B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C9C54BC-DD7B-4E8B-8B7E-405C7F62ED6D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D118D026-FC05-42F5-A00C-D63427CFD8E5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{249F0A35-C382-40DE-9B61-6730F1D00761}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F137767D-01CC-41DE-A858-A34D184764CE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4EB4215D-C1AB-4B20-B3D9-622817A00014}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16129,7 +16129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50C1B74-67C1-40D5-BC42-E475D868FFDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507E09CC-0ADD-43DA-AFAA-F79420D769DD}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17452,17 +17452,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{348D2F7D-A026-408E-92FB-BE57625645BA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DAAF047C-F47C-4D61-A65A-6941C10B1CF0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{28FCE9B2-3990-4F86-9123-F89FB8A086F3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92827667-D9E7-49B6-8F9E-2F183902938C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4BC20243-02BE-4049-B99A-951860503779}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A4C45772-0427-4E2E-90B8-4A54C3B46F06}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7E02CEF8-3E0B-4988-89CA-00356A2DE76A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD770088-4001-4761-889C-AD38B6EEEC13}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5A15D9A1-C56C-46F4-80A6-873105252F59}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{22F8C30B-7408-46BD-9D7B-E1606396B546}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B96654FB-49FF-4971-BD39-220B86DEC934}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CEF48163-8B33-47CC-9152-14C65318107F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F7194E0-1AEA-4648-96F5-7A306BE7B6DE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{28C3559B-E663-4C4F-8E5E-FAB3E4D376C3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{66D85468-D858-46AC-B1BD-168B4E63469F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{135D4779-F8DC-4915-A6C7-A4CA1B5DADBF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C7F46BC8-C304-479D-BA26-286976E9B8B6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BFC735EC-F5DB-4014-9A94-0A1392F54ADA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E1880422-4E40-47BB-8AD6-D651C0152D1F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{72BC04EA-9072-4A0D-A402-569BAAA11C9D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{578FD59A-786B-4374-8599-F1AB4119C92E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{25261CFD-5B5F-40E5-B9D6-5FD08622F670}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
